--- a/biology/Zoologie/Candoia_bibroni/Candoia_bibroni.xlsx
+++ b/biology/Zoologie/Candoia_bibroni/Candoia_bibroni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Candoia bibroni est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Candoia bibroni est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Mélanésie et en Polynésie[1], aux Fidji, aux Tonga, aux Samoa, aux Salomon, au Vanuatu et aux îles Loyauté.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Mélanésie et en Polynésie, aux Fidji, aux Tonga, aux Samoa, aux Salomon, au Vanuatu et aux îles Loyauté.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Candoia bibroni bibroni (Duméril &amp; Bibron, 1844)
 Candoia bibroni australis (Montrouzier, 1860)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gabriel Bibron[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gabriel Bibron.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1844 : Erpétologie générale ou Histoire naturelle complète des reptiles. Librairie encyclopédique Roret, Paris, vol. 6, p. 1-609 (texte intégral).
 Montrouzier, 1860 : Untitled note on Boa australis.  Revue et magasin de zoologie pure et appliquée, sér. 2, vol. 12, p. 95 (texte intégral).</t>
